--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2425454.241752654</v>
+        <v>-2430168.152707018</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892727</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14915909.762213</v>
+        <v>14913549.84465133</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>181.2824837819813</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>71.86954418429237</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -716,13 +716,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>68.76350334275963</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>95.29905430887652</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>43.18731052417775</v>
       </c>
       <c r="X4" t="n">
-        <v>114.7398479781407</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>118.2708299909896</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -911,10 +911,10 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>160.8542999853979</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -981,10 +981,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>73.09177164960495</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.64353720722846</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2.985676702963014</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>153.1349037771193</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1196,10 +1196,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>226.8653251659286</v>
+        <v>34.14491362489629</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>112.8381367815073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>101.618824848798</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
@@ -1376,16 +1376,16 @@
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>40.13905097439016</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
         <v>65.87543334372789</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>40.78297506860769</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,10 +1582,10 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>4.560852477313404</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1613,7 +1613,7 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>117.854520679837</v>
+        <v>117.8545206798372</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>40.78297506860786</v>
+        <v>74.64945414660173</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875758</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059424</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
         <v>90.90562710059308</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227892</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.2512081841671</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564645</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596575005</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565018</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970376</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.5760187316785</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196091</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380064</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667975</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644701</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883915</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541119</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658312</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.88205970103904</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656636</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678083</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754244</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.959599222137</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988133</v>
       </c>
     </row>
     <row r="35">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1042.167257230338</v>
+        <v>1053.217181563208</v>
       </c>
       <c r="C2" t="n">
-        <v>648.9917557332681</v>
+        <v>1053.217181563208</v>
       </c>
       <c r="D2" t="n">
-        <v>263.5506269499358</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E2" t="n">
-        <v>263.5506269499358</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793128</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132839</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>673.899032935488</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.71031657295</v>
+        <v>1562.028895694245</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465278</v>
+        <v>1726.974845685404</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737749</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678799</v>
+        <v>2037.169424102447</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238216</v>
+        <v>1813.668821661864</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238216</v>
+        <v>1813.668821661864</v>
       </c>
       <c r="V2" t="n">
-        <v>1442.662002941734</v>
+        <v>1813.668821661864</v>
       </c>
       <c r="W2" t="n">
-        <v>1442.662002941734</v>
+        <v>1442.669786630152</v>
       </c>
       <c r="X2" t="n">
-        <v>1442.662002941734</v>
+        <v>1053.217181563208</v>
       </c>
       <c r="Y2" t="n">
-        <v>1442.662002941734</v>
+        <v>1053.217181563208</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021438</v>
+        <v>556.1927859813206</v>
       </c>
       <c r="C3" t="n">
-        <v>505.159187462236</v>
+        <v>405.5385555414128</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837163</v>
+        <v>275.4495881628932</v>
       </c>
       <c r="E3" t="n">
-        <v>305.6121358991106</v>
+        <v>275.4495881628932</v>
       </c>
       <c r="F3" t="n">
-        <v>181.1803297822424</v>
+        <v>275.4495881628932</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>43.49565939475497</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>581.7544444048477</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.27622687548</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.24529471499</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614859</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813767</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492409</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863476</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917586</v>
+        <v>1076.610414996763</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675978</v>
+        <v>887.3033373467747</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431051</v>
+        <v>707.989120422282</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>1173.715315275373</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.550356385315</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.677996259115</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597379</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628588</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670296</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.740141446875</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S4" t="n">
-        <v>618.2256087514338</v>
+        <v>1872.346253999475</v>
       </c>
       <c r="T4" t="n">
-        <v>382.5065569196679</v>
+        <v>1636.627202167709</v>
       </c>
       <c r="U4" t="n">
-        <v>382.5065569196679</v>
+        <v>1636.627202167709</v>
       </c>
       <c r="V4" t="n">
-        <v>382.5065569196679</v>
+        <v>1636.627202167709</v>
       </c>
       <c r="W4" t="n">
-        <v>382.5065569196679</v>
+        <v>1593.003656183691</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>1358.923333966674</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475497</v>
+        <v>1358.923333966674</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>759.4637545949118</v>
+        <v>961.5617477773346</v>
       </c>
       <c r="C5" t="n">
-        <v>366.2882530978424</v>
+        <v>568.3862462802651</v>
       </c>
       <c r="D5" t="n">
-        <v>366.2882530978424</v>
+        <v>182.9451174969329</v>
       </c>
       <c r="E5" t="n">
-        <v>366.2882530978424</v>
+        <v>63.47963265754947</v>
       </c>
       <c r="F5" t="n">
-        <v>353.4342186682242</v>
+        <v>50.62559822793128</v>
       </c>
       <c r="G5" t="n">
-        <v>344.3118671966315</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>135.6402479253952</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253952</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M5" t="n">
-        <v>673.899032935488</v>
+        <v>1121.520058314908</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1635.122736924597</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023271</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T5" t="n">
-        <v>1746.775898523738</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="U5" t="n">
-        <v>1491.023168958337</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="V5" t="n">
-        <v>1148.916359661855</v>
+        <v>1733.055528520444</v>
       </c>
       <c r="W5" t="n">
-        <v>1148.916359661855</v>
+        <v>1362.056493488732</v>
       </c>
       <c r="X5" t="n">
-        <v>759.4637545949118</v>
+        <v>1362.056493488732</v>
       </c>
       <c r="Y5" t="n">
-        <v>759.4637545949118</v>
+        <v>1362.056493488732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>655.8134179021438</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>505.159187462236</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>375.0702200837163</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>301.240147710378</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.89050074442693</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475497</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475497</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>480.0174418653869</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653869</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.27622687548</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466461</v>
+        <v>1435.175877545638</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262035</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737749</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816926</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.95143773459</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413232</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784299</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917586</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>986.9239692675978</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>807.6097523431051</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.49565939475497</v>
+        <v>367.3414777878345</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475497</v>
+        <v>197.1363598538238</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633851</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>818.0258575153864</v>
+        <v>707.231217466125</v>
       </c>
       <c r="U7" t="n">
-        <v>532.5870657572874</v>
+        <v>707.231217466125</v>
       </c>
       <c r="V7" t="n">
-        <v>266.6077205781116</v>
+        <v>707.231217466125</v>
       </c>
       <c r="W7" t="n">
-        <v>266.6077205781116</v>
+        <v>707.231217466125</v>
       </c>
       <c r="X7" t="n">
-        <v>266.6077205781116</v>
+        <v>552.5494964791358</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.49565939475497</v>
+        <v>552.5494964791358</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>611.6668769506938</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="C8" t="n">
-        <v>611.6668769506938</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>934.2930482272545</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>531.7095233437991</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>518.8554889141809</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,13 +4802,13 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.4442765563904</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="M8" t="n">
         <v>864.7645682749193</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2199.134950018231</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>1943.38222045283</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>1601.275411156348</v>
+        <v>1339.781895001287</v>
       </c>
       <c r="W8" t="n">
-        <v>1230.276376124636</v>
+        <v>968.782859969574</v>
       </c>
       <c r="X8" t="n">
-        <v>840.8237710576924</v>
+        <v>968.782859969574</v>
       </c>
       <c r="Y8" t="n">
-        <v>611.6668769506938</v>
+        <v>934.2930482272545</v>
       </c>
     </row>
     <row r="9">
@@ -4881,16 +4881,16 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
         <v>1209.141762214911</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>834.7820767021797</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>679.1489636046944</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>523.5901514638969</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1135.01579512446</v>
+        <v>1361.068988064615</v>
       </c>
       <c r="C11" t="n">
-        <v>813.636568773584</v>
+        <v>1039.689761713739</v>
       </c>
       <c r="D11" t="n">
-        <v>499.9917151364457</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="E11" t="n">
-        <v>169.2044653991843</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>169.2044653991843</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G11" t="n">
-        <v>128.659969465457</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>103.3140520158406</v>
+        <v>558.6374311877012</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>460.2285883998842</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411553</v>
+        <v>376.3917504485929</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>292.6292134539892</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,13 +5203,13 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245443</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915624</v>
+        <v>1197.183134763423</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689339</v>
+        <v>985.6490078407943</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981108</v>
+        <v>823.3649607699713</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.725795560948</v>
+        <v>672.0491747328085</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1135.01579512446</v>
+        <v>1135.015795124461</v>
       </c>
       <c r="C14" t="n">
-        <v>813.6365687735845</v>
+        <v>813.6365687735847</v>
       </c>
       <c r="D14" t="n">
         <v>499.9917151364461</v>
@@ -5309,19 +5309,19 @@
         <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579423</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
         <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2106.065029543617</v>
+        <v>2106.065029543618</v>
       </c>
       <c r="X14" t="n">
         <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>1463.714265689663</v>
+        <v>1463.714265689664</v>
       </c>
     </row>
     <row r="15">
@@ -5361,10 +5361,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
         <v>1223.947919817482</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>103.3140520158406</v>
+        <v>306.7345522742323</v>
       </c>
       <c r="C16" t="n">
-        <v>103.3140520158406</v>
+        <v>306.7345522742323</v>
       </c>
       <c r="D16" t="n">
-        <v>103.3140520158406</v>
+        <v>306.7345522742323</v>
       </c>
       <c r="E16" t="n">
-        <v>103.3140520158406</v>
+        <v>306.7345522742323</v>
       </c>
       <c r="F16" t="n">
-        <v>103.3140520158406</v>
+        <v>221.2048926333991</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>145.8014035964277</v>
       </c>
       <c r="H16" t="n">
         <v>62.11912770411553</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245443</v>
+        <v>988.1475398457733</v>
       </c>
       <c r="V16" t="n">
-        <v>741.8597555915624</v>
+        <v>793.9644698127914</v>
       </c>
       <c r="W16" t="n">
-        <v>530.3256286689339</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="X16" t="n">
-        <v>368.0415815981108</v>
+        <v>420.1462958193397</v>
       </c>
       <c r="Y16" t="n">
-        <v>216.725795560948</v>
+        <v>420.1462958193397</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924256</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,16 +5543,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5686,13 +5686,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5777,13 +5777,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5914,22 +5914,22 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>969.324157721467</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -6072,10 +6072,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6160,13 +6160,13 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>969.324157721467</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6203,7 +6203,7 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6221,40 +6221,40 @@
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1256.420003061516</v>
+        <v>1163.368641331942</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1739.339056658946</v>
       </c>
       <c r="N26" t="n">
-        <v>2423.283548473132</v>
+        <v>2360.201702025982</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2893.292664647884</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3334.531518508979</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379501</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6279,13 +6279,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C27" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D27" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E27" t="n">
         <v>455.5411533800415</v>
@@ -6294,25 +6294,25 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G27" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H27" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672777</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278174</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>989.7850731278174</v>
       </c>
       <c r="N27" t="n">
         <v>1235.193651060917</v>
@@ -6321,19 +6321,19 @@
         <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R27" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S27" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T27" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U27" t="n">
         <v>1845.80571859867</v>
@@ -6342,13 +6342,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W27" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X27" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y27" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,16 +6540,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303047</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401239</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993088</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.3807258108116</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803397</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835532</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111733</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3139.085431055613</v>
+        <v>3038.19895353804</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923632</v>
+        <v>3303.341514273835</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117258</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908496</v>
+        <v>3325.162335939834</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696899</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281942</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291776</v>
+        <v>2588.479603131755</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946337</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748463</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904336</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076163</v>
+        <v>500.409263884299</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076163</v>
+        <v>983.9753497826123</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929732</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.3853606404874</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245272</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652547</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597527</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407233</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374226</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234516</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507035</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805514</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188154</v>
+        <v>499.8093949243508</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770949</v>
+        <v>794.6511495305427</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1300.536323498795</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.98443587366</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451836</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501595</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250211</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273703</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.314437140073</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045811</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027495</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6962,7 +6962,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7023,7 +7023,7 @@
         <v>545.6852136024288</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7093,19 +7093,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O37" t="n">
         <v>967.2827903862335</v>
@@ -7151,19 +7151,19 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7333,22 +7333,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O40" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q40" t="n">
         <v>1098.20216247628</v>
@@ -7403,13 +7403,13 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924229</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,10 +7433,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411555</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M42" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411555</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133159</v>
       </c>
       <c r="N43" t="n">
-        <v>683.1426636655146</v>
+        <v>804.578023344525</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072227</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D44" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,22 +7673,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
         <v>1882.877496443165</v>
@@ -7725,16 +7725,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7813,43 +7813,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
         <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>288.1928110140951</v>
+        <v>668.5156360519586</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>316.1759081222361</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,22 +8055,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837491</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>526.3032062588454</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788203</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>236.133745129379</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>596.2369171848106</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920155</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>530.9914402615969</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>574.4602701392432</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886038</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>143.0584031792374</v>
+        <v>324.3528815085492</v>
       </c>
       <c r="L8" t="n">
-        <v>427.440794103012</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8529,19 +8529,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8772,10 +8772,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8784,10 +8784,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,13 +9009,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>278.2539578070002</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,13 +9480,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>124.646981443537</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
@@ -9495,10 +9495,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9653,7 +9653,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P23" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9720,13 +9720,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>166.3231752016895</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,19 +9951,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069886</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>115.0989755892052</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10899,19 +10899,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11142,22 +11142,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>624.8237719316268</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,19 +11373,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>223.7926610107543</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>297.8137645877547</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>56.64177929133105</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>187.6803868553387</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>209.624856560052</v>
+        <v>209.6248565600518</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -23662,13 +23662,13 @@
         <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.71022589820912</v>
+        <v>20.84374682021526</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>60.68516871456096</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.174740305032174e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1305804.05291321</v>
+        <v>1304600.957685689</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1305804.05291321</v>
+        <v>1304600.957685689</v>
       </c>
     </row>
     <row r="4">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340554</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.1403106219</v>
+        <v>22558.42953401323</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399296</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728557</v>
+        <v>62456.24177539663</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962299</v>
+        <v>43252.52447081113</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277115</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327253</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.909484023</v>
+        <v>216193.9885327253</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26439,13 +26439,13 @@
         <v>173460.5839839468</v>
       </c>
       <c r="J4" t="n">
-        <v>174211.0764483299</v>
+        <v>174211.07644833</v>
       </c>
       <c r="K4" t="n">
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478466</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26457,7 +26457,7 @@
         <v>173460.5839839468</v>
       </c>
       <c r="P4" t="n">
-        <v>173460.5839839467</v>
+        <v>173460.5839839468</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001378</v>
+        <v>65170.06753481727</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315426</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-459574.1589158927</v>
+        <v>-455222.713101598</v>
       </c>
       <c r="C6" t="n">
-        <v>-277369.2106240368</v>
+        <v>-281364.0560675426</v>
       </c>
       <c r="D6" t="n">
-        <v>-284537.5316457081</v>
+        <v>-292273.8208690995</v>
       </c>
       <c r="E6" t="n">
-        <v>-291010.2486662496</v>
+        <v>-291219.9802129392</v>
       </c>
       <c r="F6" t="n">
-        <v>-178887.6871922051</v>
+        <v>-179097.4187388947</v>
       </c>
       <c r="G6" t="n">
-        <v>-279055.6788361484</v>
+        <v>-279055.6788361485</v>
       </c>
       <c r="H6" t="n">
         <v>-231630.3532994665</v>
       </c>
       <c r="I6" t="n">
-        <v>-231630.3532994664</v>
+        <v>-231630.3532994665</v>
       </c>
       <c r="J6" t="n">
-        <v>-444672.2708967519</v>
+        <v>-438155.9857421791</v>
       </c>
       <c r="K6" t="n">
         <v>-237870.1217022494</v>
       </c>
       <c r="L6" t="n">
-        <v>-293052.7106368706</v>
+        <v>-297101.5478473427</v>
       </c>
       <c r="M6" t="n">
-        <v>-273831.1827590894</v>
+        <v>-274882.8777702776</v>
       </c>
       <c r="N6" t="n">
         <v>-231630.3532994664</v>
       </c>
       <c r="O6" t="n">
-        <v>-259398.0473422376</v>
+        <v>-259398.0473422377</v>
       </c>
       <c r="P6" t="n">
-        <v>-231630.3532994664</v>
+        <v>-231630.3532994665</v>
       </c>
     </row>
   </sheetData>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293145</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,7 +26826,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660696</v>
+        <v>78.07030221924579</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551345</v>
+        <v>17.58004954287462</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042786</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344372</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485788</v>
+        <v>72.62154181506367</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>200.3042337135176</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>340.8559499010296</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27464,13 +27464,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>66.31852263746151</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>23.56016543997768</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>237.3097875239564</v>
       </c>
       <c r="X4" t="n">
-        <v>116.999671016706</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>280.2868596436313</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>159.9879199437763</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>61.9902543306162</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758521</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>230.3761846104852</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>78.60461521772737</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>165.6604768226763</v>
+        <v>358.3808883637086</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.3195537952425</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>55.66492997316341</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -28758,16 +28758,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,16 +28995,16 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.636002634528316</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29086,7 +29086,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T23" t="n">
         <v>130.3599693155844</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,7 +29296,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -29305,13 +29305,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M26" t="n">
+        <v>30.27223765901363</v>
+      </c>
+      <c r="N26" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
       <c r="O26" t="n">
-        <v>30.27223765901221</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
@@ -29454,13 +29454,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431634</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K28" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431658</v>
       </c>
       <c r="M28" t="n">
         <v>93.99127447431646</v>
@@ -29533,7 +29533,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
         <v>93.99127447431646</v>
@@ -29542,13 +29542,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>86.65052755599584</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -29557,7 +29557,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,34 +29746,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -29782,40 +29782,40 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>81.10808140893636</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566591</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844045268</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>76.79385455031687</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -30165,10 +30165,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>28.01250026485259</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30180,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30405,7 +30405,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,16 +30414,16 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>122.6619794737488</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.6129845773342</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30648,22 +30648,22 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>28.01250026485212</v>
       </c>
       <c r="N43" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30885,22 +30885,22 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529518</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>138.4677594163678</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>166.6120706981398</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>440.9310934046787</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>482.0731480899314</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>93.07534195014166</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344372</v>
+        <v>446.5118655870834</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542314</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>440.9310934046787</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>482.0731480899314</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344372</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="L8" t="n">
-        <v>274.1926243725203</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35249,19 +35249,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35504,10 +35504,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>188.193610950082</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
@@ -36215,10 +36215,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,16 +36291,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>9.092766644680799</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P23" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36440,13 +36440,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>73.93605315237758</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
-        <v>249.3850182462355</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36601,13 +36601,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101051</v>
       </c>
       <c r="N26" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047985</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215727</v>
+        <v>63.91678700215738</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963366</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
         <v>456.5997149060961</v>
@@ -36838,13 +36838,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>638.1665882070873</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
@@ -36853,7 +36853,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37069,7 +37069,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318506</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
@@ -37078,19 +37078,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.264365118496</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>267.8207684199955</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833263</v>
+        <v>75.16693519537648</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576767</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37230,22 +37230,22 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>260.7619332624727</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>277.1281693097886</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.8669559106679</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>80.25061856046935</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>22.71185353989332</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>110.6741579516626</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,7 +37476,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,16 +37710,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094876</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
-        <v>9.186815169423518e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,22 +37862,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>539.4516590774601</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37944,22 +37944,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>216.1858117176441</v>
       </c>
       <c r="N43" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38181,22 +38181,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724877</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
